--- a/mathTransformed/HMPSTT_(2017-09-07)_59_4.xlsx
+++ b/mathTransformed/HMPSTT_(2017-09-07)_59_4.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F63"/>
+  <dimension ref="A1:H63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,11 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>Address</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>District</t>
         </is>
       </c>
@@ -479,6 +484,11 @@
         </is>
       </c>
       <c r="F3" t="inlineStr">
+        <is>
+          <t>G H S HirethogaleriDavanagere South</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
         <is>
           <t>Davanagere</t>
         </is>
@@ -507,6 +517,11 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>G H S Ramagondanahalli</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>Davanagere</t>
         </is>
       </c>
@@ -534,6 +549,11 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>Sri Kalidasa High School Harihar</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>Davanagere</t>
         </is>
       </c>
@@ -561,6 +581,11 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>S T J High School</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>Davanagere</t>
         </is>
       </c>
@@ -588,6 +613,11 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
+          <t>G H S NitturHarihara</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>Davanagere</t>
         </is>
       </c>
@@ -615,6 +645,11 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t>G H S MudhahadadiDavanagere South</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>Davanagere</t>
         </is>
       </c>
@@ -642,6 +677,11 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
+          <t>G H S BelaguttiMalligenahalliHonnali</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>Davanagere</t>
         </is>
       </c>
@@ -669,6 +709,11 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
+          <t>Smt. Halamma Shamanur ShivappaHigh School Harihara</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>Davanagere</t>
         </is>
       </c>
@@ -696,6 +741,11 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
+          <t>G J C High School SectionSasvehalliHonnali</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>Davanagere</t>
         </is>
       </c>
@@ -723,6 +773,11 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
+          <t>S G R K High SchoolHarihar</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>Davanagere</t>
         </is>
       </c>
@@ -750,6 +805,11 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
+          <t>Abinaya Bharathi H S Davanagere South</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
           <t>Davanagere</t>
         </is>
       </c>
@@ -777,6 +837,11 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
+          <t>G H S Ganganakatte</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
           <t>Davanagere</t>
         </is>
       </c>
@@ -804,6 +869,11 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
+          <t>Sri R G N High School Rampura</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
           <t>Davanagere</t>
         </is>
       </c>
@@ -831,6 +901,11 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
+          <t>National High School ChiluruHonnali</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
           <t>Davanagere</t>
         </is>
       </c>
@@ -858,6 +933,11 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
+          <t>Sri Karisiddeswara Resi. High School Shyagale</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
           <t>Davanagere</t>
         </is>
       </c>
@@ -883,7 +963,8 @@
           <t>KHALIDA KHANUM</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr">
         <is>
           <t>Govt. Urdu High School Kundur</t>
         </is>
@@ -901,6 +982,11 @@
         </is>
       </c>
       <c r="F19" t="inlineStr">
+        <is>
+          <t>Honnali</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
         <is>
           <t>Davanagere</t>
         </is>
@@ -929,6 +1015,11 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
+          <t>S B H SchoolKanagondanahalliDavanagere South</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
           <t>Davanagere</t>
         </is>
       </c>
@@ -956,6 +1047,11 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
+          <t>G H P S KammaragatteHonnali</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
           <t>Davanagere</t>
         </is>
       </c>
@@ -983,6 +1079,11 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
+          <t>Sri Durgambika Comp. High School Hondada Road</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
           <t>Davanagere</t>
         </is>
       </c>
@@ -1010,6 +1111,11 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
+          <t>S N R H S NandigudiHarihar</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
           <t>Davanagere</t>
         </is>
       </c>
@@ -1037,6 +1143,11 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
+          <t>Head MasterSri Uma Pragathi High School ChinnikatteHonnali</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
           <t>Davanagere</t>
         </is>
       </c>
@@ -1064,6 +1175,11 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
+          <t>S J J H S HirekalamataHonnali</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
           <t>Davanagere</t>
         </is>
       </c>
@@ -1091,6 +1207,11 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
+          <t>Baba Saheb Ambedkar High SchoolHarihar</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
           <t>Davanagere</t>
         </is>
       </c>
@@ -1118,6 +1239,11 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
+          <t>Sri Marulasiddeshwara High SchoolAnagodu</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
           <t>Davanagere</t>
         </is>
       </c>
@@ -1145,6 +1271,11 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
+          <t>G H S GopanalDavanagere South</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
           <t>Davanagere</t>
         </is>
       </c>
@@ -1172,6 +1303,11 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
+          <t>Govt. P U College(High School Section) Mayakonda</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
           <t>Davanagere</t>
         </is>
       </c>
@@ -1199,6 +1335,11 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
+          <t>R H S NalkundaDavanagere South</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
           <t>Davanagere</t>
         </is>
       </c>
@@ -1226,6 +1367,11 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
+          <t>Sri Siddeswara High SchoolRangavvanahalli(Kurki)Davanagere South</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
           <t>Davanagere</t>
         </is>
       </c>
@@ -1253,6 +1399,11 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
+          <t>Sri Vinayaka High SchoolBenakanahalliHonnali</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
           <t>Davanagere</t>
         </is>
       </c>
@@ -1280,6 +1431,11 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
+          <t>Sri Manjunatheshwara High SchoolAvaragere</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
           <t>Davanagere</t>
         </is>
       </c>
@@ -1307,6 +1463,11 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
+          <t>Sri Maruthi High School KulagatteHonnali</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
           <t>Davanagere</t>
         </is>
       </c>
@@ -1334,6 +1495,11 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
+          <t>Govt. Junior CollegeHonnali</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
           <t>Davanagere</t>
         </is>
       </c>
@@ -1361,6 +1527,11 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
+          <t>S S V R H S Gudal</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
           <t>Davanagere</t>
         </is>
       </c>
@@ -1388,6 +1559,11 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
+          <t>S M H S DevarabelekereHarihara</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
           <t>Davanagere</t>
         </is>
       </c>
@@ -1415,6 +1591,11 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
+          <t>Govt. Girls P U CollegeNyamathi Honnali</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
           <t>Davanagere</t>
         </is>
       </c>
@@ -1442,6 +1623,11 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
+          <t>Sri SiddalingeswaraHigh SchoolG BevinahalliHarihara</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
           <t>Davanagere</t>
         </is>
       </c>
@@ -1469,6 +1655,11 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
+          <t>Govt. High School ShiramagondanahallyDavanagere South</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
           <t>Davanagere</t>
         </is>
       </c>
@@ -1496,6 +1687,11 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
+          <t>Sri Patel Gurubasappa High School BelludiHarihar</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
           <t>Davanagere</t>
         </is>
       </c>
@@ -1523,6 +1719,11 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
+          <t>G G H S Gandhimadan Harihar</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
           <t>Davanagere</t>
         </is>
       </c>
@@ -1551,6 +1752,11 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
+          <t>South</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
           <t>Davanagere</t>
         </is>
       </c>
@@ -1578,6 +1784,11 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
+          <t>Sharana Sangama High School KumbaluruHarihara</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
           <t>Davanagere</t>
         </is>
       </c>
@@ -1605,6 +1816,11 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
+          <t>Akkamahadevi Girls High SchoolDavanagere North</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
           <t>Davanagere</t>
         </is>
       </c>
@@ -1632,6 +1848,11 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
+          <t>S R H S MalebennurHarihar</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
           <t>Davanagere</t>
         </is>
       </c>
@@ -1659,6 +1880,11 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
+          <t>Shree Malagere Veerappa Channappa High SchoolVodeyara HatturuHonnali</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
           <t>Davanagere</t>
         </is>
       </c>
@@ -1686,6 +1912,11 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
+          <t>Govt Upgrade Primary SchoolKenchanahalliHarihar</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
           <t>Davanagere</t>
         </is>
       </c>
@@ -1713,6 +1944,11 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
+          <t>G H S Huvinamadu</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
           <t>Davanager</t>
         </is>
       </c>
@@ -1729,6 +1965,11 @@
         </is>
       </c>
       <c r="F50" t="inlineStr">
+        <is>
+          <t>South</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
         <is>
           <t>Davanagere</t>
         </is>
@@ -1757,6 +1998,11 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
+          <t>Govt. High School LingapuraHonnali</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
           <t>Davanagere</t>
         </is>
       </c>
@@ -1784,6 +2030,11 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
+          <t>R S G G J C Davanagere South</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
           <t>Davanagere</t>
         </is>
       </c>
@@ -1811,6 +2062,11 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
+          <t>G H S NagarasanahallyDavanagere South</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
           <t>Davanagere</t>
         </is>
       </c>
@@ -1838,6 +2094,11 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
+          <t>S S High School Hemmana Bethur</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
           <t>Davanagere</t>
         </is>
       </c>
@@ -1865,6 +2126,11 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
+          <t>G H S KokkanurHarihar</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
           <t>Davanagere</t>
         </is>
       </c>
@@ -1892,6 +2158,11 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
+          <t>Sri Maruthi High SchoolAnjaneyanagara(Honnamara) Kukkuwade</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
           <t>Davanagere</t>
         </is>
       </c>
@@ -1919,6 +2190,11 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
+          <t>G H S ShamanurDavanagere South</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
           <t>Davanagere</t>
         </is>
       </c>
@@ -1946,6 +2222,11 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
+          <t>M M M G H S K R RoadDavanagere North</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
           <t>Davanagere</t>
         </is>
       </c>
@@ -1971,7 +2252,8 @@
           <t>VEENAKSHI B S</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr">
         <is>
           <t>M S S H S Davanagere</t>
         </is>
@@ -2000,6 +2282,11 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
+          <t>Rural High School Mandalur</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
           <t>Davanagere</t>
         </is>
       </c>
@@ -2027,6 +2314,11 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
+          <t>Govt. High School HalivanaHarihar</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
           <t>Davanagere</t>
         </is>
       </c>
@@ -2054,6 +2346,11 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
+          <t>A G H S ThurchagattaDavanagere South</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
           <t>Davanagere</t>
         </is>
       </c>
@@ -2080,6 +2377,11 @@
         </is>
       </c>
       <c r="F63" t="inlineStr">
+        <is>
+          <t>Y B S G High SchoolVinobanagara</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
         <is>
           <t>Davanagere</t>
         </is>

--- a/mathTransformed/HMPSTT_(2017-09-07)_59_4.xlsx
+++ b/mathTransformed/HMPSTT_(2017-09-07)_59_4.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H63"/>
+  <dimension ref="A1:G63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -490,7 +490,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Davanagere</t>
+          <t>Davangere</t>
         </is>
       </c>
     </row>
@@ -522,7 +522,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Davanagere</t>
+          <t>Davangere</t>
         </is>
       </c>
     </row>
@@ -554,7 +554,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Davanagere</t>
+          <t>Davangere</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Davanagere</t>
+          <t>Davangere</t>
         </is>
       </c>
     </row>
@@ -618,7 +618,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Davanagere</t>
+          <t>Davangere</t>
         </is>
       </c>
     </row>
@@ -650,7 +650,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Davanagere</t>
+          <t>Davangere</t>
         </is>
       </c>
     </row>
@@ -682,7 +682,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Davanagere</t>
+          <t>Davangere</t>
         </is>
       </c>
     </row>
@@ -714,7 +714,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Davanagere</t>
+          <t>Davangere</t>
         </is>
       </c>
     </row>
@@ -746,7 +746,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Davanagere</t>
+          <t>Davangere</t>
         </is>
       </c>
     </row>
@@ -778,7 +778,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Davanagere</t>
+          <t>Davangere</t>
         </is>
       </c>
     </row>
@@ -810,7 +810,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Davanagere</t>
+          <t>Davangere</t>
         </is>
       </c>
     </row>
@@ -842,7 +842,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Davanagere</t>
+          <t>Davangere</t>
         </is>
       </c>
     </row>
@@ -874,7 +874,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Davanagere</t>
+          <t>Davangere</t>
         </is>
       </c>
     </row>
@@ -906,7 +906,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Davanagere</t>
+          <t>Davangere</t>
         </is>
       </c>
     </row>
@@ -938,7 +938,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Davanagere</t>
+          <t>Davangere</t>
         </is>
       </c>
     </row>
@@ -963,7 +963,6 @@
           <t>KHALIDA KHANUM</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
           <t>Govt. Urdu High School Kundur</t>
@@ -988,7 +987,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Davanagere</t>
+          <t>Davangere</t>
         </is>
       </c>
     </row>
@@ -1020,7 +1019,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Davanagere</t>
+          <t>Davangere</t>
         </is>
       </c>
     </row>
@@ -1052,7 +1051,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Davanagere</t>
+          <t>Davangere</t>
         </is>
       </c>
     </row>
@@ -1084,7 +1083,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Davanagere</t>
+          <t>Davangere</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1115,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Davanagere</t>
+          <t>Davangere</t>
         </is>
       </c>
     </row>
@@ -1148,7 +1147,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Davanagere</t>
+          <t>Davangere</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1179,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Davanagere</t>
+          <t>Davangere</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1211,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Davanagere</t>
+          <t>Davangere</t>
         </is>
       </c>
     </row>
@@ -1244,7 +1243,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Davanagere</t>
+          <t>Davangere</t>
         </is>
       </c>
     </row>
@@ -1276,7 +1275,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Davanagere</t>
+          <t>Davangere</t>
         </is>
       </c>
     </row>
@@ -1308,7 +1307,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Davanagere</t>
+          <t>Davangere</t>
         </is>
       </c>
     </row>
@@ -1340,7 +1339,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Davanagere</t>
+          <t>Davangere</t>
         </is>
       </c>
     </row>
@@ -1372,7 +1371,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Davanagere</t>
+          <t>Davangere</t>
         </is>
       </c>
     </row>
@@ -1404,7 +1403,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Davanagere</t>
+          <t>Davangere</t>
         </is>
       </c>
     </row>
@@ -1436,7 +1435,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Davanagere</t>
+          <t>Davangere</t>
         </is>
       </c>
     </row>
@@ -1468,7 +1467,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Davanagere</t>
+          <t>Davangere</t>
         </is>
       </c>
     </row>
@@ -1500,7 +1499,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Davanagere</t>
+          <t>Davangere</t>
         </is>
       </c>
     </row>
@@ -1532,7 +1531,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Davanagere</t>
+          <t>Davangere</t>
         </is>
       </c>
     </row>
@@ -1564,7 +1563,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Davanagere</t>
+          <t>Davangere</t>
         </is>
       </c>
     </row>
@@ -1596,7 +1595,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Davanagere</t>
+          <t>Davangere</t>
         </is>
       </c>
     </row>
@@ -1628,7 +1627,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Davanagere</t>
+          <t>Davangere</t>
         </is>
       </c>
     </row>
@@ -1660,7 +1659,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Davanagere</t>
+          <t>Davangere</t>
         </is>
       </c>
     </row>
@@ -1692,7 +1691,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Davanagere</t>
+          <t>Davangere</t>
         </is>
       </c>
     </row>
@@ -1724,7 +1723,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Davanagere</t>
+          <t>Davangere</t>
         </is>
       </c>
     </row>
@@ -1757,7 +1756,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Davanagere</t>
+          <t>Davangere</t>
         </is>
       </c>
     </row>
@@ -1789,7 +1788,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Davanagere</t>
+          <t>Davangere</t>
         </is>
       </c>
     </row>
@@ -1821,7 +1820,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Davanagere</t>
+          <t>Davangere</t>
         </is>
       </c>
     </row>
@@ -1853,7 +1852,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Davanagere</t>
+          <t>Davangere</t>
         </is>
       </c>
     </row>
@@ -1885,7 +1884,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Davanagere</t>
+          <t>Davangere</t>
         </is>
       </c>
     </row>
@@ -1917,7 +1916,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Davanagere</t>
+          <t>Davangere</t>
         </is>
       </c>
     </row>
@@ -1971,7 +1970,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Davanagere</t>
+          <t>Davangere</t>
         </is>
       </c>
     </row>
@@ -2003,7 +2002,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Davanagere</t>
+          <t>Davangere</t>
         </is>
       </c>
     </row>
@@ -2035,7 +2034,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Davanagere</t>
+          <t>Davangere</t>
         </is>
       </c>
     </row>
@@ -2067,7 +2066,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Davanagere</t>
+          <t>Davangere</t>
         </is>
       </c>
     </row>
@@ -2099,7 +2098,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Davanagere</t>
+          <t>Davangere</t>
         </is>
       </c>
     </row>
@@ -2131,7 +2130,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Davanagere</t>
+          <t>Davangere</t>
         </is>
       </c>
     </row>
@@ -2163,7 +2162,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Davanagere</t>
+          <t>Davangere</t>
         </is>
       </c>
     </row>
@@ -2195,7 +2194,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Davanagere</t>
+          <t>Davangere</t>
         </is>
       </c>
     </row>
@@ -2227,7 +2226,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Davanagere</t>
+          <t>Davangere</t>
         </is>
       </c>
     </row>
@@ -2252,7 +2251,6 @@
           <t>VEENAKSHI B S</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr">
         <is>
           <t>M S S H S Davanagere</t>
@@ -2287,7 +2285,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Davanagere</t>
+          <t>Davangere</t>
         </is>
       </c>
     </row>
@@ -2319,7 +2317,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Davanagere</t>
+          <t>Davangere</t>
         </is>
       </c>
     </row>
@@ -2351,7 +2349,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Davanagere</t>
+          <t>Davangere</t>
         </is>
       </c>
     </row>
@@ -2383,7 +2381,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Davanagere</t>
+          <t>Davangere</t>
         </is>
       </c>
     </row>

--- a/mathTransformed/HMPSTT_(2017-09-07)_59_4.xlsx
+++ b/mathTransformed/HMPSTT_(2017-09-07)_59_4.xlsx
@@ -965,7 +965,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Govt. Urdu High School Kundur</t>
+          <t>Mandya</t>
         </is>
       </c>
     </row>
@@ -1948,7 +1948,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Davanager</t>
+          <t>Davangere</t>
         </is>
       </c>
     </row>
@@ -2253,7 +2253,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>M S S H S Davanagere</t>
+          <t>Davangere</t>
         </is>
       </c>
     </row>
